--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam15-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam15-Itga9.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.70430066666666</v>
+        <v>48.091872</v>
       </c>
       <c r="H2">
-        <v>140.112902</v>
+        <v>144.275616</v>
       </c>
       <c r="I2">
-        <v>0.4277960227396157</v>
+        <v>0.421093842675958</v>
       </c>
       <c r="J2">
-        <v>0.4350095176968582</v>
+        <v>0.423782205092405</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N2">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O2">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P2">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q2">
-        <v>117.4227072881155</v>
+        <v>126.087141764608</v>
       </c>
       <c r="R2">
-        <v>1056.80436559304</v>
+        <v>1134.784275881472</v>
       </c>
       <c r="S2">
-        <v>0.04384894423746207</v>
+        <v>0.03312836702983647</v>
       </c>
       <c r="T2">
-        <v>0.04551713682497853</v>
+        <v>0.03350459926182982</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.70430066666666</v>
+        <v>48.091872</v>
       </c>
       <c r="H3">
-        <v>140.112902</v>
+        <v>144.275616</v>
       </c>
       <c r="I3">
-        <v>0.4277960227396157</v>
+        <v>0.421093842675958</v>
       </c>
       <c r="J3">
-        <v>0.4350095176968582</v>
+        <v>0.423782205092405</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>14.827407</v>
       </c>
       <c r="O3">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P3">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q3">
-        <v>230.8345582116793</v>
+        <v>237.692586511968</v>
       </c>
       <c r="R3">
-        <v>2077.511023905114</v>
+        <v>2139.233278607712</v>
       </c>
       <c r="S3">
-        <v>0.08620012180665809</v>
+        <v>0.06245178640769163</v>
       </c>
       <c r="T3">
-        <v>0.08947952583203553</v>
+        <v>0.06316103884295284</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.70430066666666</v>
+        <v>48.091872</v>
       </c>
       <c r="H4">
-        <v>140.112902</v>
+        <v>144.275616</v>
       </c>
       <c r="I4">
-        <v>0.4277960227396157</v>
+        <v>0.421093842675958</v>
       </c>
       <c r="J4">
-        <v>0.4350095176968582</v>
+        <v>0.423782205092405</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N4">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O4">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P4">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q4">
-        <v>382.6588282615497</v>
+        <v>533.701489225504</v>
       </c>
       <c r="R4">
-        <v>3443.929454353947</v>
+        <v>4803.313403029536</v>
       </c>
       <c r="S4">
-        <v>0.1428955779502071</v>
+        <v>0.1402257087597467</v>
       </c>
       <c r="T4">
-        <v>0.1483319082443755</v>
+        <v>0.1418182240606673</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.70430066666666</v>
+        <v>48.091872</v>
       </c>
       <c r="H5">
-        <v>140.112902</v>
+        <v>144.275616</v>
       </c>
       <c r="I5">
-        <v>0.4277960227396157</v>
+        <v>0.421093842675958</v>
       </c>
       <c r="J5">
-        <v>0.4350095176968582</v>
+        <v>0.423782205092405</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N5">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O5">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P5">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q5">
-        <v>70.12998692139966</v>
+        <v>23.639968462512</v>
       </c>
       <c r="R5">
-        <v>420.779921528398</v>
+        <v>141.839810775072</v>
       </c>
       <c r="S5">
-        <v>0.02618851120801602</v>
+        <v>0.006211208699313094</v>
       </c>
       <c r="T5">
-        <v>0.01812321928729357</v>
+        <v>0.004187832102009964</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.70430066666666</v>
+        <v>48.091872</v>
       </c>
       <c r="H6">
-        <v>140.112902</v>
+        <v>144.275616</v>
       </c>
       <c r="I6">
-        <v>0.4277960227396157</v>
+        <v>0.421093842675958</v>
       </c>
       <c r="J6">
-        <v>0.4350095176968582</v>
+        <v>0.423782205092405</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N6">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O6">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P6">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q6">
-        <v>344.5451765466077</v>
+        <v>681.56931157392</v>
       </c>
       <c r="R6">
-        <v>3100.906588919469</v>
+        <v>6134.12380416528</v>
       </c>
       <c r="S6">
-        <v>0.1286628675372724</v>
+        <v>0.1790767717793701</v>
       </c>
       <c r="T6">
-        <v>0.133557727508175</v>
+        <v>0.1811105108249451</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>42.154816</v>
       </c>
       <c r="I7">
-        <v>0.1287080801746603</v>
+        <v>0.1230362686979479</v>
       </c>
       <c r="J7">
-        <v>0.1308783553477452</v>
+        <v>0.1238217612582891</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N7">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O7">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P7">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q7">
-        <v>35.32817141959111</v>
+        <v>36.84046139198578</v>
       </c>
       <c r="R7">
-        <v>317.95354277632</v>
+        <v>331.564152527872</v>
       </c>
       <c r="S7">
-        <v>0.013192533662064</v>
+        <v>0.00967953043793085</v>
       </c>
       <c r="T7">
-        <v>0.01369443142148176</v>
+        <v>0.009789458927253318</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>42.154816</v>
       </c>
       <c r="I8">
-        <v>0.1287080801746603</v>
+        <v>0.1230362686979479</v>
       </c>
       <c r="J8">
-        <v>0.1308783553477452</v>
+        <v>0.1238217612582891</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>14.827407</v>
       </c>
       <c r="O8">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P8">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q8">
         <v>69.44962376023466</v>
@@ -948,10 +948,10 @@
         <v>625.046613842112</v>
       </c>
       <c r="S8">
-        <v>0.02593444445206951</v>
+        <v>0.01824732160483405</v>
       </c>
       <c r="T8">
-        <v>0.02692109643990319</v>
+        <v>0.01845455278315033</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>42.154816</v>
       </c>
       <c r="I9">
-        <v>0.1287080801746603</v>
+        <v>0.1230362686979479</v>
       </c>
       <c r="J9">
-        <v>0.1308783553477452</v>
+        <v>0.1238217612582891</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N9">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O9">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P9">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q9">
-        <v>115.1279594233315</v>
+        <v>155.9382569347484</v>
       </c>
       <c r="R9">
-        <v>1036.151634809984</v>
+        <v>1403.444312412736</v>
       </c>
       <c r="S9">
-        <v>0.04299202078981019</v>
+        <v>0.04097150381417681</v>
       </c>
       <c r="T9">
-        <v>0.04462761251615881</v>
+        <v>0.04143680898041843</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>42.154816</v>
       </c>
       <c r="I10">
-        <v>0.1287080801746603</v>
+        <v>0.1230362686979479</v>
       </c>
       <c r="J10">
-        <v>0.1308783553477452</v>
+        <v>0.1238217612582891</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N10">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O10">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P10">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q10">
-        <v>21.09953225259733</v>
+        <v>6.907186040245334</v>
       </c>
       <c r="R10">
-        <v>126.597193515584</v>
+        <v>41.443116241472</v>
       </c>
       <c r="S10">
-        <v>0.007879159274624495</v>
+        <v>0.001814806736691686</v>
       </c>
       <c r="T10">
-        <v>0.005452609741703239</v>
+        <v>0.001223611422314934</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>42.154816</v>
       </c>
       <c r="I11">
-        <v>0.1287080801746603</v>
+        <v>0.1230362686979479</v>
       </c>
       <c r="J11">
-        <v>0.1308783553477452</v>
+        <v>0.1238217612582891</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N11">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O11">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P11">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q11">
-        <v>103.6609642201955</v>
+        <v>199.1426529112533</v>
       </c>
       <c r="R11">
-        <v>932.9486779817598</v>
+        <v>1792.28387620128</v>
       </c>
       <c r="S11">
-        <v>0.03870992199609207</v>
+        <v>0.05232310610431454</v>
       </c>
       <c r="T11">
-        <v>0.04018260522849819</v>
+        <v>0.05291732914515206</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.248849</v>
+        <v>21.412221</v>
       </c>
       <c r="H12">
-        <v>45.74654700000001</v>
+        <v>64.23666299999999</v>
       </c>
       <c r="I12">
-        <v>0.1396744381232708</v>
+        <v>0.1874860355013181</v>
       </c>
       <c r="J12">
-        <v>0.1420296279836289</v>
+        <v>0.1886829905749125</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N12">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O12">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P12">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q12">
-        <v>38.33824951982667</v>
+        <v>56.138503918544</v>
       </c>
       <c r="R12">
-        <v>345.0442456784401</v>
+        <v>505.2465352668959</v>
       </c>
       <c r="S12">
-        <v>0.01431658155549043</v>
+        <v>0.01474993354827136</v>
       </c>
       <c r="T12">
-        <v>0.01486124267891698</v>
+        <v>0.01491744559061325</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.248849</v>
+        <v>21.412221</v>
       </c>
       <c r="H13">
-        <v>45.74654700000001</v>
+        <v>64.23666299999999</v>
       </c>
       <c r="I13">
-        <v>0.1396744381232708</v>
+        <v>0.1874860355013181</v>
       </c>
       <c r="J13">
-        <v>0.1420296279836289</v>
+        <v>0.1886829905749125</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>14.827407</v>
       </c>
       <c r="O13">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P13">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q13">
-        <v>75.36696346818101</v>
+        <v>105.829238513649</v>
       </c>
       <c r="R13">
-        <v>678.3026712136292</v>
+        <v>952.463146622841</v>
       </c>
       <c r="S13">
-        <v>0.02814414566642842</v>
+        <v>0.02780576835117355</v>
       </c>
       <c r="T13">
-        <v>0.02921486369622783</v>
+        <v>0.02812155289556809</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.248849</v>
+        <v>21.412221</v>
       </c>
       <c r="H14">
-        <v>45.74654700000001</v>
+        <v>64.23666299999999</v>
       </c>
       <c r="I14">
-        <v>0.1396744381232708</v>
+        <v>0.1874860355013181</v>
       </c>
       <c r="J14">
-        <v>0.1420296279836289</v>
+        <v>0.1886829905749125</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N14">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O14">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P14">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q14">
-        <v>124.9372457650753</v>
+        <v>237.622986173747</v>
       </c>
       <c r="R14">
-        <v>1124.435211885678</v>
+        <v>2138.606875563722</v>
       </c>
       <c r="S14">
-        <v>0.04665508443177712</v>
+        <v>0.06243349948709278</v>
       </c>
       <c r="T14">
-        <v>0.04843003403141999</v>
+        <v>0.06314254424145778</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.248849</v>
+        <v>21.412221</v>
       </c>
       <c r="H15">
-        <v>45.74654700000001</v>
+        <v>64.23666299999999</v>
       </c>
       <c r="I15">
-        <v>0.1396744381232708</v>
+        <v>0.1874860355013181</v>
       </c>
       <c r="J15">
-        <v>0.1420296279836289</v>
+        <v>0.1886829905749125</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N15">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O15">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P15">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q15">
-        <v>22.8972828127505</v>
+        <v>10.5253592364285</v>
       </c>
       <c r="R15">
-        <v>137.383696876503</v>
+        <v>63.15215541857099</v>
       </c>
       <c r="S15">
-        <v>0.00855048993873192</v>
+        <v>0.002765452202542968</v>
       </c>
       <c r="T15">
-        <v>0.005917190287854304</v>
+        <v>0.001864572593038837</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.248849</v>
+        <v>21.412221</v>
       </c>
       <c r="H16">
-        <v>45.74654700000001</v>
+        <v>64.23666299999999</v>
       </c>
       <c r="I16">
-        <v>0.1396744381232708</v>
+        <v>0.1874860355013181</v>
       </c>
       <c r="J16">
-        <v>0.1420296279836289</v>
+        <v>0.1886829905749125</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N16">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O16">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P16">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q16">
-        <v>112.4932243035883</v>
+        <v>303.459027883935</v>
       </c>
       <c r="R16">
-        <v>1012.439018732295</v>
+        <v>2731.131250955415</v>
       </c>
       <c r="S16">
-        <v>0.04200813653084289</v>
+        <v>0.0797313819122374</v>
       </c>
       <c r="T16">
-        <v>0.04360629728920982</v>
+        <v>0.08063687525423455</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.431107</v>
+        <v>2.1734975</v>
       </c>
       <c r="H17">
-        <v>10.862214</v>
+        <v>4.346995</v>
       </c>
       <c r="I17">
-        <v>0.04974715262852709</v>
+        <v>0.01903120789977957</v>
       </c>
       <c r="J17">
-        <v>0.03372399262175057</v>
+        <v>0.012768471746644</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N17">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O17">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P17">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q17">
-        <v>13.65474438988</v>
+        <v>5.698469949506666</v>
       </c>
       <c r="R17">
-        <v>81.92846633927999</v>
+        <v>34.19081969704</v>
       </c>
       <c r="S17">
-        <v>0.005099065923080158</v>
+        <v>0.001497226452703525</v>
       </c>
       <c r="T17">
-        <v>0.003528703451308127</v>
+        <v>0.001009486769186124</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.431107</v>
+        <v>2.1734975</v>
       </c>
       <c r="H18">
-        <v>10.862214</v>
+        <v>4.346995</v>
       </c>
       <c r="I18">
-        <v>0.04974715262852709</v>
+        <v>0.01903120789977957</v>
       </c>
       <c r="J18">
-        <v>0.03372399262175057</v>
+        <v>0.012768471746644</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>14.827407</v>
       </c>
       <c r="O18">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P18">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q18">
-        <v>26.843077983183</v>
+        <v>10.7424440153275</v>
       </c>
       <c r="R18">
-        <v>161.058467899098</v>
+        <v>64.454664091965</v>
       </c>
       <c r="S18">
-        <v>0.0100239609257039</v>
+        <v>0.002822489455757758</v>
       </c>
       <c r="T18">
-        <v>0.006936875507767999</v>
+        <v>0.001903029268959224</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.431107</v>
+        <v>2.1734975</v>
       </c>
       <c r="H19">
-        <v>10.862214</v>
+        <v>4.346995</v>
       </c>
       <c r="I19">
-        <v>0.04974715262852709</v>
+        <v>0.01903120789977957</v>
       </c>
       <c r="J19">
-        <v>0.03372399262175057</v>
+        <v>0.012768471746644</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N19">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O19">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P19">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q19">
-        <v>44.49827983970599</v>
+        <v>24.12047617064917</v>
       </c>
       <c r="R19">
-        <v>266.989679038236</v>
+        <v>144.722857023895</v>
       </c>
       <c r="S19">
-        <v>0.01661691027585202</v>
+        <v>0.006337458176405308</v>
       </c>
       <c r="T19">
-        <v>0.01149939018734171</v>
+        <v>0.0042729542800954</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.431107</v>
+        <v>2.1734975</v>
       </c>
       <c r="H20">
-        <v>10.862214</v>
+        <v>4.346995</v>
       </c>
       <c r="I20">
-        <v>0.04974715262852709</v>
+        <v>0.01903120789977957</v>
       </c>
       <c r="J20">
-        <v>0.03372399262175057</v>
+        <v>0.012768471746644</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N20">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O20">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P20">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q20">
-        <v>8.1552117779715</v>
+        <v>1.06840117085375</v>
       </c>
       <c r="R20">
-        <v>32.620847111886</v>
+        <v>4.273604683415</v>
       </c>
       <c r="S20">
-        <v>0.003045385639249002</v>
+        <v>0.0002807136844233317</v>
       </c>
       <c r="T20">
-        <v>0.001404997565945142</v>
+        <v>0.000126178530461286</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.431107</v>
+        <v>2.1734975</v>
       </c>
       <c r="H21">
-        <v>10.862214</v>
+        <v>4.346995</v>
       </c>
       <c r="I21">
-        <v>0.04974715262852709</v>
+        <v>0.01903120789977957</v>
       </c>
       <c r="J21">
-        <v>0.03372399262175057</v>
+        <v>0.012768471746644</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N21">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O21">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P21">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q21">
-        <v>40.066154367965</v>
+        <v>30.8033173419125</v>
       </c>
       <c r="R21">
-        <v>240.39692620779</v>
+        <v>184.819904051475</v>
       </c>
       <c r="S21">
-        <v>0.01496182986464201</v>
+        <v>0.00809332013048965</v>
       </c>
       <c r="T21">
-        <v>0.01035402590938758</v>
+        <v>0.005456822897941964</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>27.73836633333333</v>
+        <v>28.477822</v>
       </c>
       <c r="H22">
-        <v>83.215099</v>
+        <v>85.433466</v>
       </c>
       <c r="I22">
-        <v>0.2540743063339261</v>
+        <v>0.2493526452249964</v>
       </c>
       <c r="J22">
-        <v>0.258358506350017</v>
+        <v>0.2509445713277496</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N22">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O22">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P22">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q22">
-        <v>69.73906094549777</v>
+        <v>74.66307777874133</v>
       </c>
       <c r="R22">
-        <v>627.6515485094799</v>
+        <v>671.967700008672</v>
       </c>
       <c r="S22">
-        <v>0.02604252844442467</v>
+        <v>0.01961711408169663</v>
       </c>
       <c r="T22">
-        <v>0.02703329238792824</v>
+        <v>0.01983990171893748</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>27.73836633333333</v>
+        <v>28.477822</v>
       </c>
       <c r="H23">
-        <v>83.215099</v>
+        <v>85.433466</v>
       </c>
       <c r="I23">
-        <v>0.2540743063339261</v>
+        <v>0.2493526452249964</v>
       </c>
       <c r="J23">
-        <v>0.258358506350017</v>
+        <v>0.2509445713277496</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>14.827407</v>
       </c>
       <c r="O23">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P23">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q23">
-        <v>137.0960157131437</v>
+        <v>140.750752422518</v>
       </c>
       <c r="R23">
-        <v>1233.864141418293</v>
+        <v>1266.756771802662</v>
       </c>
       <c r="S23">
-        <v>0.05119551138804557</v>
+        <v>0.03698111100562403</v>
       </c>
       <c r="T23">
-        <v>0.05314319733800028</v>
+        <v>0.03740109807962344</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>27.73836633333333</v>
+        <v>28.477822</v>
       </c>
       <c r="H24">
-        <v>83.215099</v>
+        <v>85.433466</v>
       </c>
       <c r="I24">
-        <v>0.2540743063339261</v>
+        <v>0.2493526452249964</v>
       </c>
       <c r="J24">
-        <v>0.258358506350017</v>
+        <v>0.2509445713277496</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N24">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O24">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P24">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q24">
-        <v>227.2666672553028</v>
+        <v>316.0337782504873</v>
       </c>
       <c r="R24">
-        <v>2045.400005297726</v>
+        <v>2844.304004254386</v>
       </c>
       <c r="S24">
-        <v>0.08486777089085416</v>
+        <v>0.08303529490147331</v>
       </c>
       <c r="T24">
-        <v>0.08809648685611141</v>
+        <v>0.0839783101218393</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>27.73836633333333</v>
+        <v>28.477822</v>
       </c>
       <c r="H25">
-        <v>83.215099</v>
+        <v>85.433466</v>
       </c>
       <c r="I25">
-        <v>0.2540743063339261</v>
+        <v>0.2493526452249964</v>
       </c>
       <c r="J25">
-        <v>0.258358506350017</v>
+        <v>0.2509445713277496</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N25">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O25">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P25">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q25">
-        <v>41.65122355779183</v>
+        <v>13.998515465587</v>
       </c>
       <c r="R25">
-        <v>249.907341346751</v>
+        <v>83.991092793522</v>
       </c>
       <c r="S25">
-        <v>0.01555373931829392</v>
+        <v>0.003677995644334449</v>
       </c>
       <c r="T25">
-        <v>0.01076364464416591</v>
+        <v>0.002479843936350108</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>27.73836633333333</v>
+        <v>28.477822</v>
       </c>
       <c r="H26">
-        <v>83.215099</v>
+        <v>85.433466</v>
       </c>
       <c r="I26">
-        <v>0.2540743063339261</v>
+        <v>0.2493526452249964</v>
       </c>
       <c r="J26">
-        <v>0.258358506350017</v>
+        <v>0.2509445713277496</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N26">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O26">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P26">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q26">
-        <v>204.6304128102238</v>
+        <v>403.59438567217</v>
       </c>
       <c r="R26">
-        <v>1841.673715292015</v>
+        <v>3632.34947104953</v>
       </c>
       <c r="S26">
-        <v>0.07641475629230784</v>
+        <v>0.106041129591868</v>
       </c>
       <c r="T26">
-        <v>0.07932188512381112</v>
+        <v>0.1072454174709992</v>
       </c>
     </row>
   </sheetData>
